--- a/西北工业大学二期供热专线工程/工程量清单/西北工业大学二期供热专线工程/西北工业大学二期供热专线工程—安装工程/西北工业大学二期供热专线工程—安装工程.xlsx
+++ b/西北工业大学二期供热专线工程/工程量清单/西北工业大学二期供热专线工程/西北工业大学二期供热专线工程—安装工程/西北工业大学二期供热专线工程—安装工程.xlsx
@@ -12,14 +12,23 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121">
+  <si>
+    <t>分部分项工程量清单</t>
+  </si>
+  <si>
+    <t>工程名称：西北工业大学二期供热专线工程—安装工程</t>
+  </si>
+  <si>
+    <t>专业：市政安装</t>
+  </si>
+  <si>
+    <t>第 1 页  共 11 页</t>
+  </si>
   <si>
     <t>序号</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>项目编码</t>
   </si>
   <si>
@@ -33,123 +42,6 @@
   </si>
   <si>
     <t>040502003002</t>
-  </si>
-  <si>
-    <t>040501005003</t>
-  </si>
-  <si>
-    <t>040501005004</t>
-  </si>
-  <si>
-    <t>040501005005</t>
-  </si>
-  <si>
-    <t>040501005006</t>
-  </si>
-  <si>
-    <t>040502003003</t>
-  </si>
-  <si>
-    <t>040502012001</t>
-  </si>
-  <si>
-    <t>040502012002</t>
-  </si>
-  <si>
-    <t>040503001001</t>
-  </si>
-  <si>
-    <t>040502003004</t>
-  </si>
-  <si>
-    <t>040502003005</t>
-  </si>
-  <si>
-    <t>040502003006</t>
-  </si>
-  <si>
-    <t>040502010001</t>
-  </si>
-  <si>
-    <t>DB001</t>
-  </si>
-  <si>
-    <t>DB002</t>
-  </si>
-  <si>
-    <t>040502013001</t>
-  </si>
-  <si>
-    <t>040501005007</t>
-  </si>
-  <si>
-    <t>040501005008</t>
-  </si>
-  <si>
-    <t>040501005009</t>
-  </si>
-  <si>
-    <t>040501005010</t>
-  </si>
-  <si>
-    <t>040503001002</t>
-  </si>
-  <si>
-    <t>040502010002</t>
-  </si>
-  <si>
-    <t>040502003007</t>
-  </si>
-  <si>
-    <t>040502003008</t>
-  </si>
-  <si>
-    <t>DB003</t>
-  </si>
-  <si>
-    <t>DB004</t>
-  </si>
-  <si>
-    <t>040501005011</t>
-  </si>
-  <si>
-    <t>040501005012</t>
-  </si>
-  <si>
-    <t>040501005013</t>
-  </si>
-  <si>
-    <t>040501005014</t>
-  </si>
-  <si>
-    <t>040503001003</t>
-  </si>
-  <si>
-    <t>040502010003</t>
-  </si>
-  <si>
-    <t>040502003009</t>
-  </si>
-  <si>
-    <t>DB005</t>
-  </si>
-  <si>
-    <t>040501005015</t>
-  </si>
-  <si>
-    <t>040501005016</t>
-  </si>
-  <si>
-    <t>040502003010</t>
-  </si>
-  <si>
-    <t>040501005017</t>
-  </si>
-  <si>
-    <t>040503001004</t>
-  </si>
-  <si>
-    <t>040502003011</t>
   </si>
   <si>
     <t>项目名称</t>
@@ -212,6 +104,30 @@
 1.安装</t>
   </si>
   <si>
+    <t>计量单位</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>个</t>
+  </si>
+  <si>
+    <t>工程数量</t>
+  </si>
+  <si>
+    <t>第 2 页  共 11 页</t>
+  </si>
+  <si>
+    <t>040501005003</t>
+  </si>
+  <si>
+    <t>040501005004</t>
+  </si>
+  <si>
+    <t>040501005005</t>
+  </si>
+  <si>
     <t>D630*8管</t>
   </si>
   <si>
@@ -266,6 +182,24 @@
 1.管道铺设</t>
   </si>
   <si>
+    <t>第 3 页  共 11 页</t>
+  </si>
+  <si>
+    <t>040501005006</t>
+  </si>
+  <si>
+    <t>040502003003</t>
+  </si>
+  <si>
+    <t>040502012001</t>
+  </si>
+  <si>
+    <t>040502012002</t>
+  </si>
+  <si>
+    <t>040503001001</t>
+  </si>
+  <si>
     <t>钢管铺设
 [项目特征]
 1.安装部位:检查井（回水管道）
@@ -321,7 +255,31 @@
 4.连接方式:氩弧焊打底，普通焊接盖面
 5.阀门主材甲供
 [工作内容]
-1.阀门安装</t>
+1.阀门安</t>
+  </si>
+  <si>
+    <t>第 4 页  共 11 页</t>
+  </si>
+  <si>
+    <t>040502003004</t>
+  </si>
+  <si>
+    <t>040502003005</t>
+  </si>
+  <si>
+    <t>040502003006</t>
+  </si>
+  <si>
+    <t>040502010001</t>
+  </si>
+  <si>
+    <t>DB001</t>
+  </si>
+  <si>
+    <t>DB002</t>
+  </si>
+  <si>
+    <t>装</t>
   </si>
   <si>
     <t>直埋式预制保温管件安装
@@ -379,8 +337,28 @@
 2.无缝钢管D108*4管道5m（暂估量），管道上安装DN100球阀2个(法兰连接)，DN100弯头1个
 3.DN600*600*300三通管件1个
 4.DN300*300*100三通管件1个
-5.焊口防腐:管道除锈后刷红丹防锈漆两遍
-6.管道、阀门、管件主材甲供
+5.焊口防腐:管道除锈后刷红丹防锈漆两遍</t>
+  </si>
+  <si>
+    <t>套</t>
+  </si>
+  <si>
+    <t>第 5 页  共 11 页</t>
+  </si>
+  <si>
+    <t>040502013001</t>
+  </si>
+  <si>
+    <t>040501005007</t>
+  </si>
+  <si>
+    <t>040501005008</t>
+  </si>
+  <si>
+    <t>040501005009</t>
+  </si>
+  <si>
+    <t>6.管道、阀门、管件主材甲供
 7.其他详见图纸设计说明及规范要求
 [工程内容]
 1.安装</t>
@@ -436,8 +414,28 @@
 [项目特征]
 1.安装部位:检查井（供水管道）
 2.材质:螺旋焊钢管Q235B
-3.规格:D426*7
-4.供热介质:120℃高温热水
+3.规格:D426*7</t>
+  </si>
+  <si>
+    <t>kg</t>
+  </si>
+  <si>
+    <t>第 6 页  共 11 页</t>
+  </si>
+  <si>
+    <t>040501005010</t>
+  </si>
+  <si>
+    <t>040503001002</t>
+  </si>
+  <si>
+    <t>040502010002</t>
+  </si>
+  <si>
+    <t>040502003007</t>
+  </si>
+  <si>
+    <t>4.供热介质:120℃高温热水
 5.管道连接方式:氩弧焊打底，普通焊接盖面
 6.除锈:采用喷射或抛射除锈，表面处理质量等级要求为Sa2.5
 7.焊口防腐:无机富锌底漆（2道）+有机硅耐热中间漆（1道）
@@ -489,8 +487,25 @@
     <t>直埋式预制保温管件安装
 [项目特征]
 1.管件规格:弯头DN400，σ=9㎜
-2.管件材质:螺旋焊钢管
-3.连接方式:氩弧焊打底，普通焊接盖面
+2.管件材质:螺旋焊钢管</t>
+  </si>
+  <si>
+    <t>第 7 页  共 11 页</t>
+  </si>
+  <si>
+    <t>040502003008</t>
+  </si>
+  <si>
+    <t>DB003</t>
+  </si>
+  <si>
+    <t>DB004</t>
+  </si>
+  <si>
+    <t>040501005011</t>
+  </si>
+  <si>
+    <t>3.连接方式:氩弧焊打底，普通焊接盖面
 4.管件主材甲供
 [工作内容]
 1.安装</t>
@@ -535,8 +550,22 @@
 9.设计起点及分支点预留封堵
 10.其他详见图纸设计说明及规范要求
 11.直埋保温管道主材甲供
-[工作内容]
-1.管道铺设</t>
+[工作内容]</t>
+  </si>
+  <si>
+    <t>第 8 页  共 11 页</t>
+  </si>
+  <si>
+    <t>040501005012</t>
+  </si>
+  <si>
+    <t>040501005013</t>
+  </si>
+  <si>
+    <t>040501005014</t>
+  </si>
+  <si>
+    <t>1.管道铺设</t>
   </si>
   <si>
     <t>钢管铺设
@@ -586,8 +615,25 @@
 9.设计起点及分支点预留封堵
 10.其他详见图纸设计说明及规范要求
 11.保温管道主材甲供
-[工作内容]
-1.管道铺设</t>
+[工作内容]</t>
+  </si>
+  <si>
+    <t>第 9 页  共 11 页</t>
+  </si>
+  <si>
+    <t>040503001003</t>
+  </si>
+  <si>
+    <t>040502010003</t>
+  </si>
+  <si>
+    <t>040502003009</t>
+  </si>
+  <si>
+    <t>DB005</t>
+  </si>
+  <si>
+    <t>040501005015</t>
   </si>
   <si>
     <t>阀门安装
@@ -644,8 +690,25 @@
 4.规格:D219*6
 5.供热介质:120℃高温热水
 6.管道连接方式:氩弧焊打底，普通焊接盖面
-7.防腐、保温:39.3mm厚改性聚氨酯保温层，6.2mm厚高密度聚乙烯外保护层
-8.压力等级:设计压力≤1.6MPa
+7.防腐、保温:39.3mm厚改性聚氨酯保温层，6.2mm厚高密度聚乙烯外保护层</t>
+  </si>
+  <si>
+    <t>第 10 页  共 11 页</t>
+  </si>
+  <si>
+    <t>040501005016</t>
+  </si>
+  <si>
+    <t>040502003010</t>
+  </si>
+  <si>
+    <t>040501005017</t>
+  </si>
+  <si>
+    <t>040503001004</t>
+  </si>
+  <si>
+    <t>8.压力等级:设计压力≤1.6MPa
 9.设计起点及分支点预留封堵
 10.其他详见图纸设计说明及规范要求
 11.直埋保温管道主材甲供
@@ -702,8 +765,16 @@
 1.名称:焊接球阀
 2.规格:DN65
 3.型号:Q61H-25C
-4.连接方式:氩弧焊打底，普通焊接盖面
-5.阀门主材甲供
+4.连接方式:氩弧焊打底，普通焊接盖面</t>
+  </si>
+  <si>
+    <t>第 11 页  共 11 页</t>
+  </si>
+  <si>
+    <t>040502003011</t>
+  </si>
+  <si>
+    <t>5.阀门主材甲供
 [工作内容]
 1.阀门安装</t>
   </si>
@@ -717,30 +788,12 @@
 [工作内容]
 1.安装</t>
   </si>
-  <si>
-    <t>计量单位</t>
-  </si>
-  <si>
-    <t>m</t>
-  </si>
-  <si>
-    <t>个</t>
-  </si>
-  <si>
-    <t>套</t>
-  </si>
-  <si>
-    <t>kg</t>
-  </si>
-  <si>
-    <t>工程数量</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <name val="宋体"/>
       <charset val="134"/>
@@ -748,6 +801,13 @@
       <color theme="1"/>
       <sz val="9"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b/>
+      <color/>
+      <sz val="20"/>
     </font>
     <font>
       <name val="宋体"/>
@@ -1011,42 +1071,54 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1341,837 +1413,2014 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E50"/>
+  <dimension ref="A1:G117"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.4"/>
   <cols>
-    <col min="1" max="1" width="10.5" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" customWidth="1"/>
     <col min="2" max="2" width="20" customWidth="1"/>
-    <col min="3" max="3" width="45.33203125" customWidth="1"/>
-    <col min="4" max="4" width="12.33203125" customWidth="1"/>
-    <col min="5" max="5" width="25.16796875" customWidth="1"/>
+    <col min="3" max="3" width="28.5" customWidth="1"/>
+    <col min="4" max="4" width="16.83203125" customWidth="1"/>
+    <col min="5" max="5" width="10.16796875" customWidth="1"/>
+    <col min="6" max="6" width="2.16796875" customWidth="1"/>
+    <col min="7" max="7" width="25.16796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="17.25" customHeight="1">
+    <row r="1" ht="39.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+    </row>
+    <row r="2" ht="41.25" customHeight="1">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="E2" s="3"/>
+      <c r="F2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="4"/>
+    </row>
+    <row r="3" ht="17.25" customHeight="1">
+      <c r="A3" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="9"/>
+      <c r="G3" s="14" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" ht="17.25" customHeight="1">
+      <c r="A4" s="6"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="10"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="15"/>
+    </row>
+    <row r="5" ht="207" customHeight="1">
+      <c r="A5" s="7">
+        <v>1</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="10"/>
+      <c r="E5" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="12"/>
+      <c r="G5" s="15">
+        <v>18.7</v>
+      </c>
+    </row>
+    <row r="6" ht="207" customHeight="1">
+      <c r="A6" s="7">
+        <v>2</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="10"/>
+      <c r="E6" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="12"/>
+      <c r="G6" s="15">
+        <v>18.7</v>
+      </c>
+    </row>
+    <row r="7" ht="105" customHeight="1">
+      <c r="A7" s="7">
+        <v>3</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="10"/>
+      <c r="E7" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="12"/>
+      <c r="G7" s="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" ht="105" customHeight="1">
+      <c r="A8" s="8">
+        <v>4</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="11"/>
+      <c r="E8" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" s="13"/>
+      <c r="G8" s="16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" ht="39.75" customHeight="1">
+      <c r="A9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10" ht="41.25" customHeight="1">
+      <c r="A10" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E10" s="3"/>
+      <c r="F10" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G10" s="4"/>
+    </row>
+    <row r="11" ht="17.25" customHeight="1">
+      <c r="A11" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11" s="9"/>
+      <c r="G11" s="14" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" ht="17.25" customHeight="1">
+      <c r="A12" s="6"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="10"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="15"/>
+    </row>
+    <row r="13" ht="207" customHeight="1">
+      <c r="A13" s="7">
+        <v>5</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="10"/>
+      <c r="E13" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F13" s="12"/>
+      <c r="G13" s="15">
+        <v>2062.4</v>
+      </c>
+    </row>
+    <row r="14" ht="207" customHeight="1">
+      <c r="A14" s="7">
+        <v>6</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" s="10"/>
+      <c r="E14" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F14" s="12"/>
+      <c r="G14" s="15">
+        <v>2062.4</v>
+      </c>
+    </row>
+    <row r="15" ht="219.75" customHeight="1">
+      <c r="A15" s="8">
+        <v>7</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" s="11"/>
+      <c r="E15" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="F15" s="13"/>
+      <c r="G15" s="16">
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="16" ht="39.75" customHeight="1">
+      <c r="A16" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+    </row>
+    <row r="17" ht="41.25" customHeight="1">
+      <c r="A17" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E17" s="3"/>
+      <c r="F17" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G17" s="4"/>
+    </row>
+    <row r="18" ht="17.25" customHeight="1">
+      <c r="A18" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F18" s="9"/>
+      <c r="G18" s="14" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" ht="219.75" customHeight="1">
+      <c r="A19" s="7">
+        <v>8</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D19" s="10"/>
+      <c r="E19" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F19" s="12"/>
+      <c r="G19" s="15">
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="20" ht="105" customHeight="1">
+      <c r="A20" s="7">
+        <v>9</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D20" s="10"/>
+      <c r="E20" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F20" s="12"/>
+      <c r="G20" s="15">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="21" ht="105" customHeight="1">
+      <c r="A21" s="7">
+        <v>10</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="D21" s="10"/>
+      <c r="E21" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F21" s="12"/>
+      <c r="G21" s="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" ht="105" customHeight="1">
+      <c r="A22" s="7">
+        <v>11</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D22" s="10"/>
+      <c r="E22" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F22" s="12"/>
+      <c r="G22" s="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" ht="116.25" customHeight="1">
+      <c r="A23" s="8">
+        <v>12</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="D23" s="11"/>
+      <c r="E23" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="F23" s="13"/>
+      <c r="G23" s="16">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" ht="39.75" customHeight="1">
+      <c r="A24" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+    </row>
+    <row r="25" ht="41.25" customHeight="1">
+      <c r="A25" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E25" s="3"/>
+      <c r="F25" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G25" s="4"/>
+    </row>
+    <row r="26" ht="17.25" customHeight="1">
+      <c r="A26" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F26" s="9"/>
+      <c r="G26" s="14" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="27" ht="18.75" customHeight="1">
+      <c r="A27" s="7"/>
+      <c r="B27" s="10"/>
+      <c r="C27" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D27" s="10"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="15"/>
+    </row>
+    <row r="28" ht="105" customHeight="1">
+      <c r="A28" s="7">
+        <v>13</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="D28" s="10"/>
+      <c r="E28" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F28" s="12"/>
+      <c r="G28" s="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" ht="105" customHeight="1">
+      <c r="A29" s="7">
+        <v>14</v>
+      </c>
+      <c r="B29" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D29" s="10"/>
+      <c r="E29" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F29" s="12"/>
+      <c r="G29" s="15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" ht="105" customHeight="1">
+      <c r="A30" s="7">
+        <v>15</v>
+      </c>
+      <c r="B30" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="D30" s="10"/>
+      <c r="E30" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F30" s="12"/>
+      <c r="G30" s="15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" ht="92.25" customHeight="1">
+      <c r="A31" s="7">
+        <v>16</v>
+      </c>
+      <c r="B31" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="C31" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="D31" s="10"/>
+      <c r="E31" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F31" s="12"/>
+      <c r="G31" s="15">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="32" ht="117.75" customHeight="1">
+      <c r="A32" s="7">
+        <v>17</v>
+      </c>
+      <c r="B32" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="C32" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="D32" s="10"/>
+      <c r="E32" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="F32" s="12"/>
+      <c r="G32" s="15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" ht="105.75" customHeight="1">
+      <c r="A33" s="8">
+        <v>18</v>
+      </c>
+      <c r="B33" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="C33" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="D33" s="11"/>
+      <c r="E33" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="F33" s="13"/>
+      <c r="G33" s="16">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" ht="39.75" customHeight="1">
+      <c r="A34" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+    </row>
+    <row r="35" ht="41.25" customHeight="1">
+      <c r="A35" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E35" s="3"/>
+      <c r="F35" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="G35" s="4"/>
+    </row>
+    <row r="36" ht="17.25" customHeight="1">
+      <c r="A36" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C36" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D36" s="9"/>
+      <c r="E36" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F36" s="9"/>
+      <c r="G36" s="14" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="37" ht="57" customHeight="1">
+      <c r="A37" s="7"/>
+      <c r="B37" s="10"/>
+      <c r="C37" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="D37" s="10"/>
+      <c r="E37" s="12"/>
+      <c r="F37" s="12"/>
+      <c r="G37" s="15"/>
+    </row>
+    <row r="38" ht="92.25" customHeight="1">
+      <c r="A38" s="7">
+        <v>19</v>
+      </c>
+      <c r="B38" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="C38" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="D38" s="10"/>
+      <c r="E38" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="F38" s="12"/>
+      <c r="G38" s="15">
+        <v>3872.16</v>
+      </c>
+    </row>
+    <row r="39" ht="17.25" customHeight="1">
+      <c r="A39" s="6"/>
+      <c r="B39" s="10"/>
+      <c r="C39" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="D39" s="10"/>
+      <c r="E39" s="12"/>
+      <c r="F39" s="12"/>
+      <c r="G39" s="15"/>
+    </row>
+    <row r="40" ht="207" customHeight="1">
+      <c r="A40" s="7">
+        <v>20</v>
+      </c>
+      <c r="B40" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="C40" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="D40" s="10"/>
+      <c r="E40" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F40" s="12"/>
+      <c r="G40" s="15">
+        <v>304.6</v>
+      </c>
+    </row>
+    <row r="41" ht="207" customHeight="1">
+      <c r="A41" s="7">
+        <v>21</v>
+      </c>
+      <c r="B41" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="C41" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="D41" s="10"/>
+      <c r="E41" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F41" s="12"/>
+      <c r="G41" s="15">
+        <v>304.6</v>
+      </c>
+    </row>
+    <row r="42" ht="69.75" customHeight="1">
+      <c r="A42" s="8">
+        <v>22</v>
+      </c>
+      <c r="B42" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="C42" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="D42" s="11"/>
+      <c r="E42" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="F42" s="13"/>
+      <c r="G42" s="16">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="43" ht="39.75" customHeight="1">
+      <c r="A43" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B43" s="1"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
+    </row>
+    <row r="44" ht="41.25" customHeight="1">
+      <c r="A44" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B44" s="2"/>
+      <c r="C44" s="2"/>
+      <c r="D44" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E44" s="3"/>
+      <c r="F44" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="G44" s="4"/>
+    </row>
+    <row r="45" ht="17.25" customHeight="1">
+      <c r="A45" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B45" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C45" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D45" s="9"/>
+      <c r="E45" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F45" s="9"/>
+      <c r="G45" s="14" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="46" ht="159" customHeight="1">
+      <c r="A46" s="7"/>
+      <c r="B46" s="10"/>
+      <c r="C46" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D46" s="10"/>
+      <c r="E46" s="12"/>
+      <c r="F46" s="12"/>
+      <c r="G46" s="15"/>
+    </row>
+    <row r="47" ht="219.75" customHeight="1">
+      <c r="A47" s="7">
+        <v>23</v>
+      </c>
+      <c r="B47" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="C47" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D47" s="10"/>
+      <c r="E47" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F47" s="12"/>
+      <c r="G47" s="15">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="48" ht="117.75" customHeight="1">
+      <c r="A48" s="7">
+        <v>24</v>
+      </c>
+      <c r="B48" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="C48" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="D48" s="10"/>
+      <c r="E48" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F48" s="12"/>
+      <c r="G48" s="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" ht="92.25" customHeight="1">
+      <c r="A49" s="7">
+        <v>25</v>
+      </c>
+      <c r="B49" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="C49" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="D49" s="10"/>
+      <c r="E49" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F49" s="12"/>
+      <c r="G49" s="15">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" ht="62.25" customHeight="1">
+      <c r="A50" s="8">
+        <v>26</v>
+      </c>
+      <c r="B50" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="C50" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="D50" s="11"/>
+      <c r="E50" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="F50" s="13"/>
+      <c r="G50" s="16">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51" ht="39.75" customHeight="1">
+      <c r="A51" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B51" s="1"/>
+      <c r="C51" s="1"/>
+      <c r="D51" s="1"/>
+      <c r="E51" s="1"/>
+      <c r="F51" s="1"/>
+      <c r="G51" s="1"/>
+    </row>
+    <row r="52" ht="41.25" customHeight="1">
+      <c r="A52" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B52" s="2"/>
+      <c r="C52" s="2"/>
+      <c r="D52" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E52" s="3"/>
+      <c r="F52" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="G52" s="4"/>
+    </row>
+    <row r="53" ht="17.25" customHeight="1">
+      <c r="A53" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B53" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C53" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D53" s="9"/>
+      <c r="E53" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F53" s="9"/>
+      <c r="G53" s="14" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="54" ht="57" customHeight="1">
+      <c r="A54" s="7"/>
+      <c r="B54" s="10"/>
+      <c r="C54" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="D54" s="10"/>
+      <c r="E54" s="12"/>
+      <c r="F54" s="12"/>
+      <c r="G54" s="15"/>
+    </row>
+    <row r="55" ht="105" customHeight="1">
+      <c r="A55" s="7">
+        <v>27</v>
+      </c>
+      <c r="B55" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="C55" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="D55" s="10"/>
+      <c r="E55" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F55" s="12"/>
+      <c r="G55" s="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" ht="117.75" customHeight="1">
+      <c r="A56" s="7">
+        <v>28</v>
+      </c>
+      <c r="B56" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="C56" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="D56" s="10"/>
+      <c r="E56" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="F56" s="12"/>
+      <c r="G56" s="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" ht="156" customHeight="1">
+      <c r="A57" s="7">
+        <v>29</v>
+      </c>
+      <c r="B57" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="C57" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="D57" s="10"/>
+      <c r="E57" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="F57" s="12"/>
+      <c r="G57" s="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" ht="17.25" customHeight="1">
+      <c r="A58" s="6"/>
+      <c r="B58" s="10"/>
+      <c r="C58" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="D58" s="10"/>
+      <c r="E58" s="12"/>
+      <c r="F58" s="12"/>
+      <c r="G58" s="15"/>
+    </row>
+    <row r="59" ht="197.25" customHeight="1">
+      <c r="A59" s="8">
+        <v>30</v>
+      </c>
+      <c r="B59" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="C59" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="D59" s="11"/>
+      <c r="E59" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="F59" s="13"/>
+      <c r="G59" s="16">
+        <v>22.06</v>
+      </c>
+    </row>
+    <row r="60" ht="39.75" customHeight="1">
+      <c r="A60" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B60" s="1"/>
+      <c r="C60" s="1"/>
+      <c r="D60" s="1"/>
+      <c r="E60" s="1"/>
+      <c r="F60" s="1"/>
+      <c r="G60" s="1"/>
+    </row>
+    <row r="61" ht="41.25" customHeight="1">
+      <c r="A61" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B61" s="2"/>
+      <c r="C61" s="2"/>
+      <c r="D61" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E61" s="3"/>
+      <c r="F61" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="G61" s="4"/>
+    </row>
+    <row r="62" ht="17.25" customHeight="1">
+      <c r="A62" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B62" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C62" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D62" s="9"/>
+      <c r="E62" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F62" s="9"/>
+      <c r="G62" s="14" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="63" ht="18.75" customHeight="1">
+      <c r="A63" s="7"/>
+      <c r="B63" s="10"/>
+      <c r="C63" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="D63" s="10"/>
+      <c r="E63" s="12"/>
+      <c r="F63" s="12"/>
+      <c r="G63" s="15"/>
+    </row>
+    <row r="64" ht="207" customHeight="1">
+      <c r="A64" s="7">
+        <v>31</v>
+      </c>
+      <c r="B64" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="C64" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="D64" s="10"/>
+      <c r="E64" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F64" s="12"/>
+      <c r="G64" s="15">
+        <v>22.06</v>
+      </c>
+    </row>
+    <row r="65" ht="219.75" customHeight="1">
+      <c r="A65" s="7">
+        <v>32</v>
+      </c>
+      <c r="B65" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="C65" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="D65" s="10"/>
+      <c r="E65" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F65" s="12"/>
+      <c r="G65" s="15">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="66" ht="206.25" customHeight="1">
+      <c r="A66" s="8">
+        <v>33</v>
+      </c>
+      <c r="B66" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="C66" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="D66" s="11"/>
+      <c r="E66" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="F66" s="13"/>
+      <c r="G66" s="16">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="67" ht="39.75" customHeight="1">
+      <c r="A67" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B67" s="1"/>
+      <c r="C67" s="1"/>
+      <c r="D67" s="1"/>
+      <c r="E67" s="1"/>
+      <c r="F67" s="1"/>
+      <c r="G67" s="1"/>
+    </row>
+    <row r="68" ht="41.25" customHeight="1">
+      <c r="A68" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B68" s="2"/>
+      <c r="C68" s="2"/>
+      <c r="D68" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E68" s="3"/>
+      <c r="F68" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="G68" s="4"/>
+    </row>
+    <row r="69" ht="17.25" customHeight="1">
+      <c r="A69" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B69" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C69" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D69" s="9"/>
+      <c r="E69" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F69" s="9"/>
+      <c r="G69" s="14" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="70" ht="18.75" customHeight="1">
+      <c r="A70" s="7"/>
+      <c r="B70" s="10"/>
+      <c r="C70" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="D70" s="10"/>
+      <c r="E70" s="12"/>
+      <c r="F70" s="12"/>
+      <c r="G70" s="15"/>
+    </row>
+    <row r="71" ht="117.75" customHeight="1">
+      <c r="A71" s="7">
+        <v>34</v>
+      </c>
+      <c r="B71" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="C71" s="10" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="2" ht="17.25" customHeight="1">
-      <c r="A2" s="2"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="D2" s="8"/>
-      <c r="E2" s="11"/>
-    </row>
-    <row r="3" ht="207" customHeight="1">
-      <c r="A3" s="3">
+      <c r="D71" s="10"/>
+      <c r="E71" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F71" s="12"/>
+      <c r="G71" s="15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="72" ht="92.25" customHeight="1">
+      <c r="A72" s="7">
+        <v>35</v>
+      </c>
+      <c r="B72" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="C72" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="D72" s="10"/>
+      <c r="E72" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F72" s="12"/>
+      <c r="G72" s="15">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73" ht="105" customHeight="1">
+      <c r="A73" s="7">
+        <v>36</v>
+      </c>
+      <c r="B73" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="C73" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="D73" s="10"/>
+      <c r="E73" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F73" s="12"/>
+      <c r="G73" s="15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="74" ht="156" customHeight="1">
+      <c r="A74" s="7">
+        <v>37</v>
+      </c>
+      <c r="B74" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="C74" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="D74" s="10"/>
+      <c r="E74" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="F74" s="12"/>
+      <c r="G74" s="15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="75" ht="17.25" customHeight="1">
+      <c r="A75" s="6"/>
+      <c r="B75" s="10"/>
+      <c r="C75" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="D75" s="10"/>
+      <c r="E75" s="12"/>
+      <c r="F75" s="12"/>
+      <c r="G75" s="15"/>
+    </row>
+    <row r="76" ht="142.5" customHeight="1">
+      <c r="A76" s="8">
+        <v>38</v>
+      </c>
+      <c r="B76" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="C76" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="D76" s="11"/>
+      <c r="E76" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="F76" s="13"/>
+      <c r="G76" s="16">
+        <v>7.82</v>
+      </c>
+    </row>
+    <row r="77" ht="39.75" customHeight="1">
+      <c r="A77" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B77" s="1"/>
+      <c r="C77" s="1"/>
+      <c r="D77" s="1"/>
+      <c r="E77" s="1"/>
+      <c r="F77" s="1"/>
+      <c r="G77" s="1"/>
+    </row>
+    <row r="78" ht="41.25" customHeight="1">
+      <c r="A78" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="E3" s="11">
-        <v>18.7</v>
-      </c>
-    </row>
-    <row r="4" ht="207" customHeight="1">
-      <c r="A4" s="3">
+      <c r="B78" s="2"/>
+      <c r="C78" s="2"/>
+      <c r="D78" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="E78" s="3"/>
+      <c r="F78" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="G78" s="4"/>
+    </row>
+    <row r="79" ht="17.25" customHeight="1">
+      <c r="A79" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="E4" s="11">
-        <v>18.7</v>
-      </c>
-    </row>
-    <row r="5" ht="105" customHeight="1">
-      <c r="A5" s="3">
-        <v>3</v>
-      </c>
-      <c r="B5" s="6" t="s">
+      <c r="B79" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="E5" s="11">
+      <c r="C79" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D79" s="9"/>
+      <c r="E79" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F79" s="9"/>
+      <c r="G79" s="14" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="80" ht="82.5" customHeight="1">
+      <c r="A80" s="7"/>
+      <c r="B80" s="10"/>
+      <c r="C80" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="D80" s="10"/>
+      <c r="E80" s="12"/>
+      <c r="F80" s="12"/>
+      <c r="G80" s="15"/>
+    </row>
+    <row r="81" ht="207" customHeight="1">
+      <c r="A81" s="7">
+        <v>39</v>
+      </c>
+      <c r="B81" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="C81" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="D81" s="10"/>
+      <c r="E81" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F81" s="12"/>
+      <c r="G81" s="15">
+        <v>7.82</v>
+      </c>
+    </row>
+    <row r="82" ht="105" customHeight="1">
+      <c r="A82" s="7">
+        <v>40</v>
+      </c>
+      <c r="B82" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="C82" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="D82" s="10"/>
+      <c r="E82" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F82" s="12"/>
+      <c r="G82" s="15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="83" ht="17.25" customHeight="1">
+      <c r="A83" s="6"/>
+      <c r="B83" s="10"/>
+      <c r="C83" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="D83" s="10"/>
+      <c r="E83" s="12"/>
+      <c r="F83" s="12"/>
+      <c r="G83" s="15"/>
+    </row>
+    <row r="84" ht="156" customHeight="1">
+      <c r="A84" s="7">
+        <v>41</v>
+      </c>
+      <c r="B84" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="C84" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="D84" s="10"/>
+      <c r="E84" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F84" s="12"/>
+      <c r="G84" s="15">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="85" ht="82.5" customHeight="1">
+      <c r="A85" s="8">
+        <v>42</v>
+      </c>
+      <c r="B85" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="C85" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="D85" s="11"/>
+      <c r="E85" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="F85" s="13"/>
+      <c r="G85" s="16">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="86" ht="39.75" customHeight="1">
+      <c r="A86" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B86" s="1"/>
+      <c r="C86" s="1"/>
+      <c r="D86" s="1"/>
+      <c r="E86" s="1"/>
+      <c r="F86" s="1"/>
+      <c r="G86" s="1"/>
+    </row>
+    <row r="87" ht="41.25" customHeight="1">
+      <c r="A87" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B87" s="2"/>
+      <c r="C87" s="2"/>
+      <c r="D87" s="3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" ht="105" customHeight="1">
-      <c r="A6" s="3">
+      <c r="E87" s="3"/>
+      <c r="F87" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="G87" s="4"/>
+    </row>
+    <row r="88" ht="17.25" customHeight="1">
+      <c r="A88" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="E6" s="11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" ht="17.25" customHeight="1">
-      <c r="A7" s="2"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="D7" s="8"/>
-      <c r="E7" s="11"/>
-    </row>
-    <row r="8" ht="207" customHeight="1">
-      <c r="A8" s="3">
+      <c r="B88" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="E8" s="11">
-        <v>2062.4</v>
-      </c>
-    </row>
-    <row r="9" ht="207" customHeight="1">
-      <c r="A9" s="3">
-        <v>6</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="E9" s="11">
-        <v>2062.4</v>
-      </c>
-    </row>
-    <row r="10" ht="219.75" customHeight="1">
-      <c r="A10" s="3">
-        <v>7</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="E10" s="11">
-        <v>9.6</v>
-      </c>
-    </row>
-    <row r="11" ht="219.75" customHeight="1">
-      <c r="A11" s="3">
-        <v>8</v>
-      </c>
-      <c r="B11" s="6" t="s">
+      <c r="C88" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="E11" s="11">
-        <v>9.6</v>
-      </c>
-    </row>
-    <row r="12" ht="105" customHeight="1">
-      <c r="A12" s="3">
-        <v>9</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="E12" s="11">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="13" ht="105" customHeight="1">
-      <c r="A13" s="3">
-        <v>10</v>
-      </c>
-      <c r="B13" s="6" t="s">
+      <c r="D88" s="9"/>
+      <c r="E88" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F88" s="9"/>
+      <c r="G88" s="14" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="89" ht="44.25" customHeight="1">
+      <c r="A89" s="7"/>
+      <c r="B89" s="10"/>
+      <c r="C89" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="D89" s="10"/>
+      <c r="E89" s="12"/>
+      <c r="F89" s="12"/>
+      <c r="G89" s="15"/>
+    </row>
+    <row r="90" ht="105" customHeight="1">
+      <c r="A90" s="7">
+        <v>43</v>
+      </c>
+      <c r="B90" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="C90" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="D90" s="10"/>
+      <c r="E90" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F90" s="12"/>
+      <c r="G90" s="15">
         <v>12</v>
       </c>
-      <c r="C13" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="E13" s="11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" ht="105" customHeight="1">
-      <c r="A14" s="3">
-        <v>11</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="E14" s="11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" ht="117.75" customHeight="1">
-      <c r="A15" s="3">
-        <v>12</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="E15" s="11">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16" ht="105" customHeight="1">
-      <c r="A16" s="3">
-        <v>13</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="E16" s="11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" ht="105" customHeight="1">
-      <c r="A17" s="3">
-        <v>14</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="E17" s="11">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" ht="105" customHeight="1">
-      <c r="A18" s="3">
-        <v>15</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="E18" s="11">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" ht="92.25" customHeight="1">
-      <c r="A19" s="3">
-        <v>16</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="E19" s="11">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="20" ht="117.75" customHeight="1">
-      <c r="A20" s="3">
-        <v>17</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="E20" s="11">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="21" ht="156" customHeight="1">
-      <c r="A21" s="3">
-        <v>18</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="E21" s="11">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="22" ht="92.25" customHeight="1">
-      <c r="A22" s="3">
-        <v>19</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="D22" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="E22" s="11">
-        <v>3872.16</v>
-      </c>
-    </row>
-    <row r="23" ht="17.25" customHeight="1">
-      <c r="A23" s="2"/>
-      <c r="B23" s="6"/>
-      <c r="C23" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="D23" s="8"/>
-      <c r="E23" s="11"/>
-    </row>
-    <row r="24" ht="207" customHeight="1">
-      <c r="A24" s="3">
-        <v>20</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="D24" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="E24" s="11">
-        <v>304.6</v>
-      </c>
-    </row>
-    <row r="25" ht="207" customHeight="1">
-      <c r="A25" s="3">
-        <v>21</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="D25" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="E25" s="11">
-        <v>304.6</v>
-      </c>
-    </row>
-    <row r="26" ht="219.75" customHeight="1">
-      <c r="A26" s="3">
-        <v>22</v>
-      </c>
-      <c r="B26" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="D26" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="E26" s="11">
-        <v>3.6</v>
-      </c>
-    </row>
-    <row r="27" ht="219.75" customHeight="1">
-      <c r="A27" s="3">
-        <v>23</v>
-      </c>
-      <c r="B27" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="D27" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="E27" s="11">
-        <v>3.6</v>
-      </c>
-    </row>
-    <row r="28" ht="117.75" customHeight="1">
-      <c r="A28" s="3">
-        <v>24</v>
-      </c>
-      <c r="B28" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="D28" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="E28" s="11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" ht="92.25" customHeight="1">
-      <c r="A29" s="3">
-        <v>25</v>
-      </c>
-      <c r="B29" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C29" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="D29" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="E29" s="11">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="30" ht="105" customHeight="1">
-      <c r="A30" s="3">
-        <v>26</v>
-      </c>
-      <c r="B30" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="C30" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="D30" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="E30" s="11">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="31" ht="105" customHeight="1">
-      <c r="A31" s="3">
-        <v>27</v>
-      </c>
-      <c r="B31" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C31" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="D31" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="E31" s="11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="32" ht="117.75" customHeight="1">
-      <c r="A32" s="3">
-        <v>28</v>
-      </c>
-      <c r="B32" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="C32" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="D32" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="E32" s="11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="33" ht="156" customHeight="1">
-      <c r="A33" s="3">
-        <v>29</v>
-      </c>
-      <c r="B33" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C33" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="D33" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="E33" s="11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="34" ht="17.25" customHeight="1">
-      <c r="A34" s="2"/>
-      <c r="B34" s="6"/>
-      <c r="C34" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="D34" s="8"/>
-      <c r="E34" s="11"/>
-    </row>
-    <row r="35" ht="207" customHeight="1">
-      <c r="A35" s="3">
-        <v>30</v>
-      </c>
-      <c r="B35" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C35" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="D35" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="E35" s="11">
-        <v>22.06</v>
-      </c>
-    </row>
-    <row r="36" ht="207" customHeight="1">
-      <c r="A36" s="3">
-        <v>31</v>
-      </c>
-      <c r="B36" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="C36" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="D36" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="E36" s="11">
-        <v>22.06</v>
-      </c>
-    </row>
-    <row r="37" ht="219.75" customHeight="1">
-      <c r="A37" s="3">
-        <v>32</v>
-      </c>
-      <c r="B37" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="C37" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="D37" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="E37" s="11">
-        <v>3.6</v>
-      </c>
-    </row>
-    <row r="38" ht="219.75" customHeight="1">
-      <c r="A38" s="3">
-        <v>33</v>
-      </c>
-      <c r="B38" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="C38" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="D38" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="E38" s="11">
-        <v>3.6</v>
-      </c>
-    </row>
-    <row r="39" ht="117.75" customHeight="1">
-      <c r="A39" s="3">
-        <v>34</v>
-      </c>
-      <c r="B39" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="C39" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="D39" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="E39" s="11">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="40" ht="92.25" customHeight="1">
-      <c r="A40" s="3">
-        <v>35</v>
-      </c>
-      <c r="B40" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="C40" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="D40" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="E40" s="11">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="41" ht="105" customHeight="1">
-      <c r="A41" s="3">
-        <v>36</v>
-      </c>
-      <c r="B41" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="C41" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="D41" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="E41" s="11">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="42" ht="156" customHeight="1">
-      <c r="A42" s="3">
-        <v>37</v>
-      </c>
-      <c r="B42" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="C42" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="D42" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="E42" s="11">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="43" ht="17.25" customHeight="1">
-      <c r="A43" s="2"/>
-      <c r="B43" s="6"/>
-      <c r="C43" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="D43" s="8"/>
-      <c r="E43" s="11"/>
-    </row>
-    <row r="44" ht="207" customHeight="1">
-      <c r="A44" s="3">
-        <v>38</v>
-      </c>
-      <c r="B44" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="C44" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="D44" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="E44" s="11">
-        <v>7.82</v>
-      </c>
-    </row>
-    <row r="45" ht="207" customHeight="1">
-      <c r="A45" s="3">
-        <v>39</v>
-      </c>
-      <c r="B45" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="C45" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="D45" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="E45" s="11">
-        <v>7.82</v>
-      </c>
-    </row>
-    <row r="46" ht="105" customHeight="1">
-      <c r="A46" s="3">
-        <v>40</v>
-      </c>
-      <c r="B46" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="C46" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="D46" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="E46" s="11">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="47" ht="17.25" customHeight="1">
-      <c r="A47" s="2"/>
-      <c r="B47" s="6"/>
-      <c r="C47" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="D47" s="8"/>
-      <c r="E47" s="11"/>
-    </row>
-    <row r="48" ht="156" customHeight="1">
-      <c r="A48" s="3">
-        <v>41</v>
-      </c>
-      <c r="B48" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="C48" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="D48" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="E48" s="11">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="49" ht="117.75" customHeight="1">
-      <c r="A49" s="3">
-        <v>42</v>
-      </c>
-      <c r="B49" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="C49" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="D49" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="E49" s="11">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="50" ht="105" customHeight="1">
-      <c r="A50" s="4">
-        <v>43</v>
-      </c>
-      <c r="B50" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="C50" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="D50" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="E50" s="12">
-        <v>12</v>
-      </c>
+    </row>
+    <row r="91" ht="17.25" customHeight="1">
+      <c r="A91" s="7"/>
+      <c r="B91" s="10"/>
+      <c r="C91" s="10"/>
+      <c r="D91" s="10"/>
+      <c r="E91" s="12"/>
+      <c r="F91" s="12"/>
+      <c r="G91" s="15"/>
+    </row>
+    <row r="92" ht="17.25" customHeight="1">
+      <c r="A92" s="7"/>
+      <c r="B92" s="10"/>
+      <c r="C92" s="10"/>
+      <c r="D92" s="10"/>
+      <c r="E92" s="12"/>
+      <c r="F92" s="12"/>
+      <c r="G92" s="15"/>
+    </row>
+    <row r="93" ht="17.25" customHeight="1">
+      <c r="A93" s="7"/>
+      <c r="B93" s="10"/>
+      <c r="C93" s="10"/>
+      <c r="D93" s="10"/>
+      <c r="E93" s="12"/>
+      <c r="F93" s="12"/>
+      <c r="G93" s="15"/>
+    </row>
+    <row r="94" ht="17.25" customHeight="1">
+      <c r="A94" s="7"/>
+      <c r="B94" s="10"/>
+      <c r="C94" s="10"/>
+      <c r="D94" s="10"/>
+      <c r="E94" s="12"/>
+      <c r="F94" s="12"/>
+      <c r="G94" s="15"/>
+    </row>
+    <row r="95" ht="17.25" customHeight="1">
+      <c r="A95" s="7"/>
+      <c r="B95" s="10"/>
+      <c r="C95" s="10"/>
+      <c r="D95" s="10"/>
+      <c r="E95" s="12"/>
+      <c r="F95" s="12"/>
+      <c r="G95" s="15"/>
+    </row>
+    <row r="96" ht="17.25" customHeight="1">
+      <c r="A96" s="7"/>
+      <c r="B96" s="10"/>
+      <c r="C96" s="10"/>
+      <c r="D96" s="10"/>
+      <c r="E96" s="12"/>
+      <c r="F96" s="12"/>
+      <c r="G96" s="15"/>
+    </row>
+    <row r="97" ht="17.25" customHeight="1">
+      <c r="A97" s="7"/>
+      <c r="B97" s="10"/>
+      <c r="C97" s="10"/>
+      <c r="D97" s="10"/>
+      <c r="E97" s="12"/>
+      <c r="F97" s="12"/>
+      <c r="G97" s="15"/>
+    </row>
+    <row r="98" ht="17.25" customHeight="1">
+      <c r="A98" s="7"/>
+      <c r="B98" s="10"/>
+      <c r="C98" s="10"/>
+      <c r="D98" s="10"/>
+      <c r="E98" s="12"/>
+      <c r="F98" s="12"/>
+      <c r="G98" s="15"/>
+    </row>
+    <row r="99" ht="17.25" customHeight="1">
+      <c r="A99" s="7"/>
+      <c r="B99" s="10"/>
+      <c r="C99" s="10"/>
+      <c r="D99" s="10"/>
+      <c r="E99" s="12"/>
+      <c r="F99" s="12"/>
+      <c r="G99" s="15"/>
+    </row>
+    <row r="100" ht="17.25" customHeight="1">
+      <c r="A100" s="7"/>
+      <c r="B100" s="10"/>
+      <c r="C100" s="10"/>
+      <c r="D100" s="10"/>
+      <c r="E100" s="12"/>
+      <c r="F100" s="12"/>
+      <c r="G100" s="15"/>
+    </row>
+    <row r="101" ht="17.25" customHeight="1">
+      <c r="A101" s="7"/>
+      <c r="B101" s="10"/>
+      <c r="C101" s="10"/>
+      <c r="D101" s="10"/>
+      <c r="E101" s="12"/>
+      <c r="F101" s="12"/>
+      <c r="G101" s="15"/>
+    </row>
+    <row r="102" ht="17.25" customHeight="1">
+      <c r="A102" s="7"/>
+      <c r="B102" s="10"/>
+      <c r="C102" s="10"/>
+      <c r="D102" s="10"/>
+      <c r="E102" s="12"/>
+      <c r="F102" s="12"/>
+      <c r="G102" s="15"/>
+    </row>
+    <row r="103" ht="17.25" customHeight="1">
+      <c r="A103" s="7"/>
+      <c r="B103" s="10"/>
+      <c r="C103" s="10"/>
+      <c r="D103" s="10"/>
+      <c r="E103" s="12"/>
+      <c r="F103" s="12"/>
+      <c r="G103" s="15"/>
+    </row>
+    <row r="104" ht="17.25" customHeight="1">
+      <c r="A104" s="7"/>
+      <c r="B104" s="10"/>
+      <c r="C104" s="10"/>
+      <c r="D104" s="10"/>
+      <c r="E104" s="12"/>
+      <c r="F104" s="12"/>
+      <c r="G104" s="15"/>
+    </row>
+    <row r="105" ht="17.25" customHeight="1">
+      <c r="A105" s="7"/>
+      <c r="B105" s="10"/>
+      <c r="C105" s="10"/>
+      <c r="D105" s="10"/>
+      <c r="E105" s="12"/>
+      <c r="F105" s="12"/>
+      <c r="G105" s="15"/>
+    </row>
+    <row r="106" ht="17.25" customHeight="1">
+      <c r="A106" s="7"/>
+      <c r="B106" s="10"/>
+      <c r="C106" s="10"/>
+      <c r="D106" s="10"/>
+      <c r="E106" s="12"/>
+      <c r="F106" s="12"/>
+      <c r="G106" s="15"/>
+    </row>
+    <row r="107" ht="17.25" customHeight="1">
+      <c r="A107" s="7"/>
+      <c r="B107" s="10"/>
+      <c r="C107" s="10"/>
+      <c r="D107" s="10"/>
+      <c r="E107" s="12"/>
+      <c r="F107" s="12"/>
+      <c r="G107" s="15"/>
+    </row>
+    <row r="108" ht="17.25" customHeight="1">
+      <c r="A108" s="7"/>
+      <c r="B108" s="10"/>
+      <c r="C108" s="10"/>
+      <c r="D108" s="10"/>
+      <c r="E108" s="12"/>
+      <c r="F108" s="12"/>
+      <c r="G108" s="15"/>
+    </row>
+    <row r="109" ht="17.25" customHeight="1">
+      <c r="A109" s="7"/>
+      <c r="B109" s="10"/>
+      <c r="C109" s="10"/>
+      <c r="D109" s="10"/>
+      <c r="E109" s="12"/>
+      <c r="F109" s="12"/>
+      <c r="G109" s="15"/>
+    </row>
+    <row r="110" ht="17.25" customHeight="1">
+      <c r="A110" s="7"/>
+      <c r="B110" s="10"/>
+      <c r="C110" s="10"/>
+      <c r="D110" s="10"/>
+      <c r="E110" s="12"/>
+      <c r="F110" s="12"/>
+      <c r="G110" s="15"/>
+    </row>
+    <row r="111" ht="17.25" customHeight="1">
+      <c r="A111" s="7"/>
+      <c r="B111" s="10"/>
+      <c r="C111" s="10"/>
+      <c r="D111" s="10"/>
+      <c r="E111" s="12"/>
+      <c r="F111" s="12"/>
+      <c r="G111" s="15"/>
+    </row>
+    <row r="112" ht="17.25" customHeight="1">
+      <c r="A112" s="7"/>
+      <c r="B112" s="10"/>
+      <c r="C112" s="10"/>
+      <c r="D112" s="10"/>
+      <c r="E112" s="12"/>
+      <c r="F112" s="12"/>
+      <c r="G112" s="15"/>
+    </row>
+    <row r="113" ht="17.25" customHeight="1">
+      <c r="A113" s="7"/>
+      <c r="B113" s="10"/>
+      <c r="C113" s="10"/>
+      <c r="D113" s="10"/>
+      <c r="E113" s="12"/>
+      <c r="F113" s="12"/>
+      <c r="G113" s="15"/>
+    </row>
+    <row r="114" ht="17.25" customHeight="1">
+      <c r="A114" s="7"/>
+      <c r="B114" s="10"/>
+      <c r="C114" s="10"/>
+      <c r="D114" s="10"/>
+      <c r="E114" s="12"/>
+      <c r="F114" s="12"/>
+      <c r="G114" s="15"/>
+    </row>
+    <row r="115" ht="17.25" customHeight="1">
+      <c r="A115" s="7"/>
+      <c r="B115" s="10"/>
+      <c r="C115" s="10"/>
+      <c r="D115" s="10"/>
+      <c r="E115" s="12"/>
+      <c r="F115" s="12"/>
+      <c r="G115" s="15"/>
+    </row>
+    <row r="116" ht="17.25" customHeight="1">
+      <c r="A116" s="7"/>
+      <c r="B116" s="10"/>
+      <c r="C116" s="10"/>
+      <c r="D116" s="10"/>
+      <c r="E116" s="12"/>
+      <c r="F116" s="12"/>
+      <c r="G116" s="15"/>
+    </row>
+    <row r="117" ht="17.25" customHeight="1">
+      <c r="A117" s="8"/>
+      <c r="B117" s="11"/>
+      <c r="C117" s="11"/>
+      <c r="D117" s="11"/>
+      <c r="E117" s="13"/>
+      <c r="F117" s="13"/>
+      <c r="G117" s="16"/>
     </row>
   </sheetData>
   <mergeCells>
-    <mergeCell ref="A1"/>
-    <mergeCell ref="B1"/>
-    <mergeCell ref="C1"/>
-    <mergeCell ref="D1"/>
-    <mergeCell ref="E1"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="A3"/>
+    <mergeCell ref="B3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="A9:G9"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="A11"/>
+    <mergeCell ref="B11"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="A16:G16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="A18"/>
+    <mergeCell ref="B18"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="G18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="A24:G24"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="A26"/>
+    <mergeCell ref="B26"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="G26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="A34:G34"/>
+    <mergeCell ref="A35:C35"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="A36"/>
+    <mergeCell ref="B36"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="G36"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="A43:G43"/>
+    <mergeCell ref="A44:C44"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="A45"/>
+    <mergeCell ref="B45"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="E45:F45"/>
+    <mergeCell ref="G45"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="E46:F46"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="E47:F47"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="E48:F48"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="E49:F49"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="E50:F50"/>
+    <mergeCell ref="A51:G51"/>
+    <mergeCell ref="A52:C52"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="F52:G52"/>
+    <mergeCell ref="A53"/>
+    <mergeCell ref="B53"/>
+    <mergeCell ref="C53:D53"/>
+    <mergeCell ref="E53:F53"/>
+    <mergeCell ref="G53"/>
+    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="E54:F54"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="E55:F55"/>
+    <mergeCell ref="C56:D56"/>
+    <mergeCell ref="E56:F56"/>
+    <mergeCell ref="C57:D57"/>
+    <mergeCell ref="E57:F57"/>
+    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="E58:F58"/>
+    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="E59:F59"/>
+    <mergeCell ref="A60:G60"/>
+    <mergeCell ref="A61:C61"/>
+    <mergeCell ref="D61:E61"/>
+    <mergeCell ref="F61:G61"/>
+    <mergeCell ref="A62"/>
+    <mergeCell ref="B62"/>
+    <mergeCell ref="C62:D62"/>
+    <mergeCell ref="E62:F62"/>
+    <mergeCell ref="G62"/>
+    <mergeCell ref="C63:D63"/>
+    <mergeCell ref="E63:F63"/>
+    <mergeCell ref="C64:D64"/>
+    <mergeCell ref="E64:F64"/>
+    <mergeCell ref="C65:D65"/>
+    <mergeCell ref="E65:F65"/>
+    <mergeCell ref="C66:D66"/>
+    <mergeCell ref="E66:F66"/>
+    <mergeCell ref="A67:G67"/>
+    <mergeCell ref="A68:C68"/>
+    <mergeCell ref="D68:E68"/>
+    <mergeCell ref="F68:G68"/>
+    <mergeCell ref="A69"/>
+    <mergeCell ref="B69"/>
+    <mergeCell ref="C69:D69"/>
+    <mergeCell ref="E69:F69"/>
+    <mergeCell ref="G69"/>
+    <mergeCell ref="C70:D70"/>
+    <mergeCell ref="E70:F70"/>
+    <mergeCell ref="C71:D71"/>
+    <mergeCell ref="E71:F71"/>
+    <mergeCell ref="C72:D72"/>
+    <mergeCell ref="E72:F72"/>
+    <mergeCell ref="C73:D73"/>
+    <mergeCell ref="E73:F73"/>
+    <mergeCell ref="C74:D74"/>
+    <mergeCell ref="E74:F74"/>
+    <mergeCell ref="C75:D75"/>
+    <mergeCell ref="E75:F75"/>
+    <mergeCell ref="C76:D76"/>
+    <mergeCell ref="E76:F76"/>
+    <mergeCell ref="A77:G77"/>
+    <mergeCell ref="A78:C78"/>
+    <mergeCell ref="D78:E78"/>
+    <mergeCell ref="F78:G78"/>
+    <mergeCell ref="A79"/>
+    <mergeCell ref="B79"/>
+    <mergeCell ref="C79:D79"/>
+    <mergeCell ref="E79:F79"/>
+    <mergeCell ref="G79"/>
+    <mergeCell ref="C80:D80"/>
+    <mergeCell ref="E80:F80"/>
+    <mergeCell ref="C81:D81"/>
+    <mergeCell ref="E81:F81"/>
+    <mergeCell ref="C82:D82"/>
+    <mergeCell ref="E82:F82"/>
+    <mergeCell ref="C83:D83"/>
+    <mergeCell ref="E83:F83"/>
+    <mergeCell ref="C84:D84"/>
+    <mergeCell ref="E84:F84"/>
+    <mergeCell ref="C85:D85"/>
+    <mergeCell ref="E85:F85"/>
+    <mergeCell ref="A86:G86"/>
+    <mergeCell ref="A87:C87"/>
+    <mergeCell ref="D87:E87"/>
+    <mergeCell ref="F87:G87"/>
+    <mergeCell ref="A88"/>
+    <mergeCell ref="B88"/>
+    <mergeCell ref="C88:D88"/>
+    <mergeCell ref="E88:F88"/>
+    <mergeCell ref="G88"/>
+    <mergeCell ref="C89:D89"/>
+    <mergeCell ref="E89:F89"/>
+    <mergeCell ref="C90:D90"/>
+    <mergeCell ref="E90:F90"/>
+    <mergeCell ref="C91:D91"/>
+    <mergeCell ref="E91:F91"/>
+    <mergeCell ref="C92:D92"/>
+    <mergeCell ref="E92:F92"/>
+    <mergeCell ref="C93:D93"/>
+    <mergeCell ref="E93:F93"/>
+    <mergeCell ref="C94:D94"/>
+    <mergeCell ref="E94:F94"/>
+    <mergeCell ref="C95:D95"/>
+    <mergeCell ref="E95:F95"/>
+    <mergeCell ref="C96:D96"/>
+    <mergeCell ref="E96:F96"/>
+    <mergeCell ref="C97:D97"/>
+    <mergeCell ref="E97:F97"/>
+    <mergeCell ref="C98:D98"/>
+    <mergeCell ref="E98:F98"/>
+    <mergeCell ref="C99:D99"/>
+    <mergeCell ref="E99:F99"/>
+    <mergeCell ref="C100:D100"/>
+    <mergeCell ref="E100:F100"/>
+    <mergeCell ref="C101:D101"/>
+    <mergeCell ref="E101:F101"/>
+    <mergeCell ref="C102:D102"/>
+    <mergeCell ref="E102:F102"/>
+    <mergeCell ref="C103:D103"/>
+    <mergeCell ref="E103:F103"/>
+    <mergeCell ref="C104:D104"/>
+    <mergeCell ref="E104:F104"/>
+    <mergeCell ref="C105:D105"/>
+    <mergeCell ref="E105:F105"/>
+    <mergeCell ref="C106:D106"/>
+    <mergeCell ref="E106:F106"/>
+    <mergeCell ref="C107:D107"/>
+    <mergeCell ref="E107:F107"/>
+    <mergeCell ref="C108:D108"/>
+    <mergeCell ref="E108:F108"/>
+    <mergeCell ref="C109:D109"/>
+    <mergeCell ref="E109:F109"/>
+    <mergeCell ref="C110:D110"/>
+    <mergeCell ref="E110:F110"/>
+    <mergeCell ref="C111:D111"/>
+    <mergeCell ref="E111:F111"/>
+    <mergeCell ref="C112:D112"/>
+    <mergeCell ref="E112:F112"/>
+    <mergeCell ref="C113:D113"/>
+    <mergeCell ref="E113:F113"/>
+    <mergeCell ref="C114:D114"/>
+    <mergeCell ref="E114:F114"/>
+    <mergeCell ref="C115:D115"/>
+    <mergeCell ref="E115:F115"/>
+    <mergeCell ref="C116:D116"/>
+    <mergeCell ref="E116:F116"/>
+    <mergeCell ref="C117:D117"/>
+    <mergeCell ref="E117:F117"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.19975" right="0.19975" top="1.72916666666667" bottom="0.59375" header="0.59375" footer="0"/>
+  <pageMargins left="0.19975" right="0.19975" top="0.59375" bottom="0" header="0.59375" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter>
-    <oddHeader>&amp;L&amp;20
-&amp;"宋体,常规"&amp;10 工程名称：西北工业大学二期供热专线工程—安装工程&amp;C&amp;"宋体,加粗"&amp;20 分部分项工程量清单
-&amp;"宋体,常规"&amp;10 专业：市政安装&amp;R&amp;20
-&amp;"宋体,常规"&amp;10 第 &amp;P 页  共 &amp;N 页</oddHeader>
-  </headerFooter>
+  <rowBreaks count="10" manualBreakCount="10">
+    <brk id="8" max="16383" man="1"/>
+    <brk id="15" max="16383" man="1"/>
+    <brk id="23" max="16383" man="1"/>
+    <brk id="33" max="16383" man="1"/>
+    <brk id="42" max="16383" man="1"/>
+    <brk id="50" max="16383" man="1"/>
+    <brk id="59" max="16383" man="1"/>
+    <brk id="66" max="16383" man="1"/>
+    <brk id="76" max="16383" man="1"/>
+    <brk id="85" max="16383" man="1"/>
+  </rowBreaks>
 </worksheet>
 </file>